--- a/data/xlsx/experience.xlsx
+++ b/data/xlsx/experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\WebstormProjects\CloudGuruChallenge_21.04\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C94F25-3EC7-48AA-B017-49DF56D9F7A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918AD2F-CB79-4895-A50E-F8341E7320B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
-  <si>
-    <t>description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Mauris venenatis purus ac mauris vehicula, tristique tempor tellus lobortis. Fusce semper eu elit ac elementum. Aenean tincidunt venenatis nisl, at egestas massa ullamcorper at. Maecenas dui ex, egestas at velit eu, dictum tempor dolor. Donec varius ac nisi sit amet ultrices.</t>
-  </si>
-  <si>
     <t>location.address</t>
   </si>
   <si>
@@ -155,6 +149,59 @@
   </si>
   <si>
     <t>Trainee</t>
+  </si>
+  <si>
+    <t>[
+"Design, implement, secure, and maintain AWS environments for multiple applications on the platform",
+"Implement Jenkins jobs and pipelines to analyze code and deploy code artifacts onto active servers",
+"Perform cost optimization on AWS environments to meet monetary requirements",
+"Provide development guidance on best practices for numerous programming languages to numerous colleagues",
+"Write Ansible playbooks and CloudFormation templates to automate AWS infrastructure"
+]</t>
+  </si>
+  <si>
+    <t>descriptions</t>
+  </si>
+  <si>
+    <t>[
+"Coordinate API communication across numerous teams working on a unified product for the business",
+"Design and implement backend logic for &lt;a href='https://www.verizon.com/5g/home' target='_blank'&gt;Verizon's 5G Home Customer Qualification&lt;/a&gt;"
+]</t>
+  </si>
+  <si>
+    <t>[
+"Design and implement backend logic including API specifications and database elements in Java and Python",
+"Translate business requirements into technical requirements so they can be written as code",
+"Write application code to generate tiles embedded with data for serving on &lt;a href='https://www.verizon.com/coverage-map/' target='_blank'&gt;Verizon's 5G Coverage Map&lt;/a&gt;"
+]</t>
+  </si>
+  <si>
+    <t>[
+"Act as gate keeper to multiple backend Java repositories",
+"Perform maintenance and optimizations on existing Java code written by colleagues",
+"Provide Java code guidance to the team when required",
+"Write Java and unit tests to complete technical requirements"
+]</t>
+  </si>
+  <si>
+    <t>[
+"Convert legacy code to match current Java standards",
+"Perform data entry and correct data bugs in multiple databases"
+]</t>
+  </si>
+  <si>
+    <t>[
+"Created an expense reimbursement sample application",
+"Created an inventory management sample application",
+"Created an internal blogging application for technical trainers"
+]</t>
+  </si>
+  <si>
+    <t>[
+"Implement full stack code with pair programming style against  vigorous standards",
+"Implement multiple types of tests to maintain 100% average",
+"Interact with GCP products to perform analysis, corrections, monitoring, logging, and validation"
+]</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1100,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,80 +1125,80 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1">
         <v>49503</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1">
         <v>4</v>
@@ -1160,18 +1207,18 @@
         <v>2021</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -1180,25 +1227,25 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1">
         <v>33637</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -1207,18 +1254,18 @@
         <v>2020</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1227,25 +1274,25 @@
         <v>2020</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1">
         <v>33637</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1">
         <v>11</v>
@@ -1254,18 +1301,18 @@
         <v>2019</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
@@ -1274,25 +1321,25 @@
         <v>2019</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1">
         <v>33637</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1">
         <v>12</v>
@@ -1301,18 +1348,18 @@
         <v>2017</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -1321,25 +1368,25 @@
         <v>2017</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1">
         <v>33637</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1">
         <v>8</v>
@@ -1348,18 +1395,18 @@
         <v>2017</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1368,25 +1415,25 @@
         <v>2017</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <v>33637</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1">
         <v>11</v>
@@ -1395,18 +1442,18 @@
         <v>2016</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>11</v>
@@ -1415,25 +1462,25 @@
         <v>2016</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1">
         <v>20190</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>7</v>
@@ -1442,10 +1489,10 @@
         <v>2016</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/experience.xlsx
+++ b/data/xlsx/experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\WebstormProjects\CloudGuruChallenge_21.04\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918AD2F-CB79-4895-A50E-F8341E7320B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E17525-EA4E-4175-8A49-5951796BE983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
   </si>
   <si>
     <t>[
-"Implement full stack code with pair programming style against  vigorous standards",
+"Implement full stack code with pair programming style against vigorous standards",
 "Implement multiple types of tests to maintain 100% average",
 "Interact with GCP products to perform analysis, corrections, monitoring, logging, and validation"
 ]</t>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/xlsx/experience.xlsx
+++ b/data/xlsx/experience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\WebstormProjects\CloudGuruChallenge_21.04\data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\WebstormProjects\Resume\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E17525-EA4E-4175-8A49-5951796BE983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C01AD9-E533-4E90-82E6-014E85C50A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -202,6 +202,30 @@
 "Implement multiple types of tests to maintain 100% average",
 "Interact with GCP products to perform analysis, corrections, monitoring, logging, and validation"
 ]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ceb98a69-33d6-43b6-8d5d-e6ab148a3f3f</t>
+  </si>
+  <si>
+    <t>4635e5f1-709f-4ffa-a9a9-aff05d4bda82</t>
+  </si>
+  <si>
+    <t>8d569c1a-5f74-4645-a8e2-c6a52edab0d0</t>
+  </si>
+  <si>
+    <t>2508e8f3-78a6-4833-a83e-4bb60c0595f4</t>
+  </si>
+  <si>
+    <t>6d0442b2-8522-45df-adee-76fab641fe91</t>
+  </si>
+  <si>
+    <t>b580ce54-8c14-498d-8bca-e3769dd38c05</t>
+  </si>
+  <si>
+    <t>082416de-1242-4920-aa86-2e689a98e8c1</t>
   </si>
 </sst>
 </file>
@@ -1097,403 +1121,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="41" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="b">
+      <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>49503</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>4</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2021</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2021</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="b">
+      <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>33637</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>2020</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>2020</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="b">
+      <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>33637</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>11</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2019</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>2019</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="b">
+      <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>33637</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>12</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>2017</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2017</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="b">
+      <c r="H6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>33637</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>8</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>2017</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2017</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="b">
+      <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>33637</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>11</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>2016</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>2016</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1" t="b">
+      <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>20190</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>7</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>2016</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
